--- a/123.xlsx
+++ b/123.xlsx
@@ -11,8 +11,21 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+  <si>
+    <t>sdfsdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,12 +367,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="H14:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="14" spans="8:8">
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/123.xlsx
+++ b/123.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -15,9 +15,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>fdsafdsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,11 +75,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -144,6 +158,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -178,6 +193,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,12 +369,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -366,27 +404,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/123.xlsx
+++ b/123.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -29,8 +29,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,11 +79,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -157,6 +162,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -191,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,26 +373,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="H14:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="14" spans="8:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="H14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="10:10">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:10">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.15">
       <c r="J25" t="s">
         <v>1</v>
       </c>
@@ -398,12 +411,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -412,12 +425,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/123.xlsx
+++ b/123.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -29,8 +29,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -162,7 +162,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -197,7 +196,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,32 +371,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1">
         <v>111111111</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2.22222222222222E+20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="H14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="10:10">
       <c r="J19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="10:10">
       <c r="J25" t="s">
         <v>1</v>
       </c>
@@ -411,12 +416,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -425,12 +430,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
